--- a/程序/表A-手工数据母表 - 副本.xlsx
+++ b/程序/表A-手工数据母表 - 副本.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\lenovo\Desktop\处理Excel\处理Excel\程序\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727A28F-BDC2-409F-B043-A020AE1DEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5610" windowWidth="26535" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="母表" sheetId="1" r:id="rId1"/>
     <sheet name="已删除账号信息表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="待发省联社取数" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">母表!$A$1:$H$31</definedName>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
   <si>
     <t>序号</t>
   </si>
@@ -505,16 +499,32 @@
   </si>
   <si>
     <t>删除时账号状态</t>
+  </si>
+  <si>
+    <t>代发身份证号</t>
+  </si>
+  <si>
+    <t>代发账户</t>
+  </si>
+  <si>
+    <t>代发户名</t>
+  </si>
+  <si>
+    <t>补贴项目</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,21 +533,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -545,13 +879,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,21 +1137,65 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -589,7 +1209,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C8ECCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -862,19 +1482,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
@@ -886,7 +1506,7 @@
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -938,7 +1558,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -964,7 +1584,7 @@
         <v>44563</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -990,7 +1610,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1016,7 +1636,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1042,7 +1662,7 @@
         <v>44566</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1068,7 +1688,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1094,7 +1714,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1120,7 +1740,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1146,7 +1766,7 @@
         <v>44570</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1172,7 +1792,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1198,7 +1818,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1224,7 +1844,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1250,7 +1870,7 @@
         <v>44574</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1276,7 +1896,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1302,7 +1922,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1328,7 +1948,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1354,7 +1974,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1380,7 +2000,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1406,7 +2026,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1432,7 +2052,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1458,7 +2078,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1484,7 +2104,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1510,7 +2130,7 @@
         <v>44584</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1536,7 +2156,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1562,7 +2182,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1588,7 +2208,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1614,7 +2234,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1640,7 +2260,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1666,7 +2286,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1693,21 +2313,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
@@ -1721,7 +2342,7 @@
     <col min="10" max="10" width="16.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +2374,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1762,7 +2383,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -1771,7 +2392,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -1780,7 +2401,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -1789,7 +2410,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -1798,7 +2419,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -1807,7 +2428,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -1816,7 +2437,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -1825,7 +2446,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1834,7 +2455,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1843,7 +2464,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -1852,7 +2473,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1861,7 +2482,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1870,7 +2491,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1879,7 +2500,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -1888,7 +2509,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -1897,7 +2518,7 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -1906,7 +2527,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -1915,7 +2536,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -1924,7 +2545,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -1933,7 +2554,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -1942,7 +2563,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -1951,7 +2572,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -1960,7 +2581,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -1969,7 +2590,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1978,7 +2599,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -1987,7 +2608,7 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1996,7 +2617,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -2005,7 +2626,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -2014,7 +2635,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -2024,22 +2645,58 @@
       <c r="H31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>